--- a/Project_DataWarehouse/files/monhoc/monhoctest2014.xlsx
+++ b/Project_DataWarehouse/files/monhoc/monhoctest2014.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevPrograms\git\DataWarehouse_nhom14\Project_DataWarehouse\files\monhoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9D9DBC-1839-4A07-B23B-FAC23E4B4D75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23070" windowHeight="10215"/>
+    <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="189">
   <si>
     <t>STT</t>
   </si>
@@ -41,9 +48,6 @@
     <t>Khoa/BM quản lý</t>
   </si>
   <si>
-    <t>Ghi chú</t>
-  </si>
-  <si>
     <t>Vật lý 1</t>
   </si>
   <si>
@@ -71,9 +75,6 @@
     <t>CNTT</t>
   </si>
   <si>
-    <t>Chỉ áp dụng cho SV chuyên ngành CNTT khóa 2013 trở về trước</t>
-  </si>
-  <si>
     <t>Tin học đại cương</t>
   </si>
   <si>
@@ -86,9 +87,6 @@
     <t>THỦY SẢN</t>
   </si>
   <si>
-    <t>Chỉ áp dụng cho SV khoa Thủy sản</t>
-  </si>
-  <si>
     <t>Quản lý chất lượng trong CBTS</t>
   </si>
   <si>
@@ -161,18 +159,12 @@
     <t>Cơ thể học Sinh lý HVĐ &amp; Da</t>
   </si>
   <si>
-    <t>Áp dụng cho SV CNTY Chương trình tiên tiến</t>
-  </si>
-  <si>
     <t>Nguyên lý bệnh I</t>
   </si>
   <si>
     <t>Anh văn chuyên ngành</t>
   </si>
   <si>
-    <t>Áp dụng cho SV CNTY từ CT tiên tiến chuyển sang Tiếng Việt</t>
-  </si>
-  <si>
     <t>Hóa lý 1</t>
   </si>
   <si>
@@ -209,39 +201,24 @@
     <t>Công nghệ SH đại cương</t>
   </si>
   <si>
-    <t>Chỉ áp dụng cho SV Bộ môn CNSH</t>
-  </si>
-  <si>
     <t>Đa dạng &amp; Bảo tồn nguồn gen</t>
   </si>
   <si>
     <t>CN SINH HOC</t>
   </si>
   <si>
-    <t>Chỉ áp dụng cho chương trình liên thông ngành CNSH</t>
-  </si>
-  <si>
     <t>Di truyền phân tử</t>
   </si>
   <si>
-    <t>Chỉ áp dụng cho SV Bộ môn CNSH (khóa 2013 trở về trước)</t>
-  </si>
-  <si>
     <t>Sinh hóa học</t>
   </si>
   <si>
     <t>Sinh thái học môi trường</t>
   </si>
   <si>
-    <t>Chỉ áp dụng cho SV Chuyên ngành CNSH (khóa 2013 trở về trước)</t>
-  </si>
-  <si>
     <t>Đánh giá ô nhiễm môi trường</t>
   </si>
   <si>
-    <t>Chỉ áp dụng cho SV BM CNSH (khóa 2013 trở về trước)</t>
-  </si>
-  <si>
     <t>Thực hành đánh giá ô nhiễm MT</t>
   </si>
   <si>
@@ -275,9 +252,6 @@
     <t>MÔI TRƯỜNG VÀ TN</t>
   </si>
   <si>
-    <t>Chỉ áp dụng cho SV khoa MTTN</t>
-  </si>
-  <si>
     <t>Đa dạng sinh học và bảo tồn CQ</t>
   </si>
   <si>
@@ -314,18 +288,12 @@
     <t>KINH TẾ</t>
   </si>
   <si>
-    <t>Chỉ áp dụng cho SV ngành Quản trị tài chính</t>
-  </si>
-  <si>
     <t>Khóa luận TN ngành QT</t>
   </si>
   <si>
     <t>Kiến tập chuyên ngành KT &amp; KDMN</t>
   </si>
   <si>
-    <t>Chỉ áp dụng cho SV ngành kinh doanh NN và chuyên ngành Kinh tế Nông lâm</t>
-  </si>
-  <si>
     <t>Khóa luận TN ngành KT &amp; KDNN</t>
   </si>
   <si>
@@ -344,24 +312,12 @@
     <t>PP nghiên cứu KH kinh tế</t>
   </si>
   <si>
-    <t>Chỉ áp dụng cho SV ngành Kinh tế nông lâm. Phát triển nông thôn</t>
-  </si>
-  <si>
-    <t>Chỉ áp dụng cho SV ngành Kinh tế tài nguyên môi trường</t>
-  </si>
-  <si>
     <t>Phương pháp NCKH Quản trị</t>
   </si>
   <si>
-    <t xml:space="preserve">Chỉ áp dụng cho SV ngành kế toán </t>
-  </si>
-  <si>
     <t>Kinh tế tài nguyên MT căn bản</t>
   </si>
   <si>
-    <t>Chỉ áp dụng cho SV chuyên ngành Kinh tế tài nguyên môi trường</t>
-  </si>
-  <si>
     <t>Tiếng Anh CN quản trị</t>
   </si>
   <si>
@@ -380,18 +336,12 @@
     <t>Quản trị dự án</t>
   </si>
   <si>
-    <t>Chỉ áp dụng cho SV chuyên ngành PT Nông thôn</t>
-  </si>
-  <si>
     <t>Khóa luận tốt nghiệp TN ngành PTNT</t>
   </si>
   <si>
     <t>Kế toán tài chánh 2</t>
   </si>
   <si>
-    <t>Chỉ áp dụng cho SV liên thông lên đại học ngành Kế toán</t>
-  </si>
-  <si>
     <t>Kế toán tài chánh 3</t>
   </si>
   <si>
@@ -470,9 +420,6 @@
     <t>Kỹ thuật bản đồ số</t>
   </si>
   <si>
-    <t>Chỉ áp dụng cho SV ngành Công nghệ địa chính</t>
-  </si>
-  <si>
     <t>Lưu trữ hồ sơ địa chính</t>
   </si>
   <si>
@@ -512,9 +459,6 @@
     <t>Quy hoạch đồ thị</t>
   </si>
   <si>
-    <t>Chỉ áp dụng cho SV khoa QLĐĐ&amp;BĐS</t>
-  </si>
-  <si>
     <t>Quy hoạch PT nông thôn</t>
   </si>
   <si>
@@ -527,9 +471,6 @@
     <t>Khí tượng nông nghiệp</t>
   </si>
   <si>
-    <t>Chỉ áp dụng cho SV khoa Nông học</t>
-  </si>
-  <si>
     <t>Khuyết nông</t>
   </si>
   <si>
@@ -572,22 +513,13 @@
     <t>Nước trong CNTP</t>
   </si>
   <si>
-    <t>Chỉ áp dụng cho SV khoa CNTP</t>
-  </si>
-  <si>
     <t>Anh văn 1</t>
   </si>
   <si>
-    <t>Áp dụng cho SV CNTP CT tiên tiến</t>
-  </si>
-  <si>
     <t>Anh văn 2</t>
   </si>
   <si>
     <t>Hóa sinh đại cương</t>
-  </si>
-  <si>
-    <t>Áp dụng cho SV CNTP từ CT tiên tiến chuyển sang CT Tiếng Việt</t>
   </si>
   <si>
     <t>Dinh dưỡng đại cương</t>
@@ -671,7 +603,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -991,21 +923,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G180"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="52.7109375" customWidth="1"/>
-    <col min="5" max="5" width="58.85546875" customWidth="1"/>
+    <col min="3" max="3" width="52.6640625" customWidth="1"/>
+    <col min="5" max="5" width="58.88671875" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,13 +954,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1036,3282 +965,3274 @@
         <v>202201</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
+        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3">
         <v>202202</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
         <v>202304</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5">
         <v>202402</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6">
         <v>202401</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7">
         <v>202620</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8">
         <v>214201</v>
       </c>
       <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9">
         <v>214103</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10">
         <v>214477</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11">
         <v>206523</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12">
         <v>200524</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13">
         <v>205525</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14">
         <v>206525</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15">
         <v>208522</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16">
         <v>206316</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17">
         <v>202406</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18">
         <v>205214</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19">
         <v>206421</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20">
         <v>203111</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21">
         <v>203107</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22">
         <v>203109</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23">
         <v>203157</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24">
         <v>203158</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25">
         <v>203211</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26">
         <v>203212</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27">
         <v>203313</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28">
         <v>203314</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29">
         <v>203363</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30">
         <v>203462</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31">
         <v>203517</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32">
         <v>203527</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33">
         <v>203516</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34">
         <v>203615</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35">
         <v>203159</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36">
         <v>203561</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D36">
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37">
         <v>203912</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38">
         <v>203912</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39">
         <v>217111</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40">
         <v>217109</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41">
         <v>217708</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42">
         <v>217707</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43">
         <v>217110</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D43">
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44">
         <v>217225</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45">
         <v>217415</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46">
         <v>217514</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47">
         <v>217417</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48">
         <v>217610</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49">
         <v>211301</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
-      </c>
-      <c r="G49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50">
         <v>211134</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51">
         <v>211215</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52">
         <v>211214</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
-      </c>
-      <c r="G52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53">
         <v>212104</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54">
         <v>211319</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55">
         <v>211322</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>63</v>
-      </c>
-      <c r="G55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56">
         <v>211518</v>
       </c>
       <c r="C56" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>63</v>
-      </c>
-      <c r="G56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57">
         <v>211218</v>
       </c>
       <c r="C57" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D57">
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B58">
         <v>211324</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D58">
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
-      </c>
-      <c r="G58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59">
         <v>211308</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D59">
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>63</v>
-      </c>
-      <c r="G59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60">
         <v>211323</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>63</v>
-      </c>
-      <c r="G60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61">
         <v>205542</v>
       </c>
       <c r="C61" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D61">
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62">
         <v>205824</v>
       </c>
       <c r="C62" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D62">
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63">
         <v>216108</v>
       </c>
       <c r="C63" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F63" t="s">
-        <v>82</v>
-      </c>
-      <c r="G63" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64">
         <v>216109</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F64" t="s">
-        <v>82</v>
-      </c>
-      <c r="G64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B65">
         <v>216107</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F65" t="s">
-        <v>82</v>
-      </c>
-      <c r="G65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B66">
         <v>216308</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F66" t="s">
-        <v>82</v>
-      </c>
-      <c r="G66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B67">
         <v>216202</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D67">
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F67" t="s">
-        <v>82</v>
-      </c>
-      <c r="G67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
+        <f t="shared" ref="A68:A131" si="1">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68">
         <v>204303</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D68">
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F68" t="s">
-        <v>82</v>
-      </c>
-      <c r="G68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B69">
         <v>204301</v>
       </c>
       <c r="C69" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D69">
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
-      </c>
-      <c r="G69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B70">
         <v>204707</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
-      </c>
-      <c r="G70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B71">
         <v>216110</v>
       </c>
       <c r="C71" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D71">
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F71" t="s">
-        <v>82</v>
-      </c>
-      <c r="G71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B72">
         <v>216320</v>
       </c>
       <c r="C72" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>82</v>
-      </c>
-      <c r="G72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B73">
         <v>208133</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D73">
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>95</v>
-      </c>
-      <c r="G73" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B74">
         <v>208499</v>
       </c>
       <c r="C74" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D74">
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B75">
         <v>206153</v>
       </c>
       <c r="C75" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D75">
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>95</v>
-      </c>
-      <c r="G75" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B76">
         <v>208197</v>
       </c>
       <c r="C76" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D76">
         <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B77">
         <v>208445</v>
       </c>
       <c r="C77" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B78">
         <v>208152</v>
       </c>
       <c r="C78" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D78">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B79">
         <v>208699</v>
       </c>
       <c r="C79" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D79">
         <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B80">
         <v>208399</v>
       </c>
       <c r="C80" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D80">
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B81">
         <v>208151</v>
       </c>
       <c r="C81" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D81">
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>95</v>
-      </c>
-      <c r="G81" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B82">
         <v>208151</v>
       </c>
       <c r="C82" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D82">
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>95</v>
-      </c>
-      <c r="G82" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B83">
         <v>208403</v>
       </c>
       <c r="C83" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D83">
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>95</v>
-      </c>
-      <c r="G83" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B84">
         <v>208627</v>
       </c>
       <c r="C84" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D84">
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>95</v>
-      </c>
-      <c r="G84" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B85">
         <v>208475</v>
       </c>
       <c r="C85" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D85">
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B86">
         <v>208208</v>
       </c>
       <c r="C86" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D86">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B87">
         <v>208226</v>
       </c>
       <c r="C87" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D87">
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B88">
         <v>208530</v>
       </c>
       <c r="C88" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D88">
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B89">
         <v>208421</v>
       </c>
       <c r="C89" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D89">
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B90">
         <v>208438</v>
       </c>
       <c r="C90" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D90">
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>95</v>
-      </c>
-      <c r="G90" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B91">
         <v>208599</v>
       </c>
       <c r="C91" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D91">
         <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B92">
         <v>208348</v>
       </c>
       <c r="C92" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D92">
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>95</v>
-      </c>
-      <c r="G92" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B93">
         <v>208300</v>
       </c>
       <c r="C93" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D93">
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>95</v>
-      </c>
-      <c r="G93" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B94">
         <v>213120</v>
       </c>
       <c r="C94" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D94">
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B95">
         <v>213411</v>
       </c>
       <c r="C95" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D95">
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B96">
         <v>213408</v>
       </c>
       <c r="C96" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D96">
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B97">
         <v>213409</v>
       </c>
       <c r="C97" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="D97">
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B98">
         <v>213410</v>
       </c>
       <c r="C98" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D98">
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B99">
         <v>213415</v>
       </c>
       <c r="C99" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="D99">
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B100">
         <v>213412</v>
       </c>
       <c r="C100" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="D100">
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B101">
         <v>213413</v>
       </c>
       <c r="C101" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="D101">
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B102">
         <v>213414</v>
       </c>
       <c r="C102" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D102">
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B103">
         <v>213135</v>
       </c>
       <c r="C103" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="D103">
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B104">
         <v>213125</v>
       </c>
       <c r="C104" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="D104">
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B105">
         <v>213126</v>
       </c>
       <c r="C105" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D105">
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B106">
         <v>213127</v>
       </c>
       <c r="C106" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="D106">
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B107">
         <v>213132</v>
       </c>
       <c r="C107" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D107">
         <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B108">
         <v>213133</v>
       </c>
       <c r="C108" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="D108">
         <v>3</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B109">
         <v>213903</v>
       </c>
       <c r="C109" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="D109">
         <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B110">
         <v>209132</v>
       </c>
       <c r="C110" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="D110">
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B111">
         <v>209129</v>
       </c>
       <c r="C111" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="D111">
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="B112">
         <v>209140</v>
       </c>
       <c r="C112" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="D112">
         <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="B113">
         <v>209141</v>
       </c>
       <c r="C113" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D113">
         <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="B114">
         <v>209138</v>
       </c>
       <c r="C114" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="D114">
         <v>2</v>
       </c>
       <c r="E114" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="B115">
         <v>209145</v>
       </c>
       <c r="C115" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D115">
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="B116">
         <v>209144</v>
       </c>
       <c r="C116" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D116">
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>141</v>
-      </c>
-      <c r="G116" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="B117">
         <v>209133</v>
       </c>
       <c r="C117" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="D117">
         <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="B118">
         <v>209422</v>
       </c>
       <c r="C118" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D118">
         <v>2</v>
       </c>
       <c r="E118" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="B119">
         <v>209421</v>
       </c>
       <c r="C119" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D119">
         <v>2</v>
       </c>
       <c r="E119" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="B120">
         <v>209218</v>
       </c>
       <c r="C120" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D120">
         <v>2</v>
       </c>
       <c r="E120" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="B121">
         <v>209226</v>
       </c>
       <c r="C121" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="D121">
         <v>2</v>
       </c>
       <c r="E121" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="B122">
         <v>209228</v>
       </c>
       <c r="C122" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="D122">
         <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="B123">
         <v>209227</v>
       </c>
       <c r="C123" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D123">
         <v>2</v>
       </c>
       <c r="E123" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="B124">
         <v>209224</v>
       </c>
       <c r="C124" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D124">
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="B125">
         <v>209230</v>
       </c>
       <c r="C125" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="D125">
         <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="B126">
         <v>209225</v>
       </c>
       <c r="C126" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="D126">
         <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="B127">
         <v>209338</v>
       </c>
       <c r="C127" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D127">
         <v>3</v>
       </c>
       <c r="E127" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="B128">
         <v>209339</v>
       </c>
       <c r="C128" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D128">
         <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="B129">
         <v>209340</v>
       </c>
       <c r="C129" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D129">
         <v>3</v>
       </c>
       <c r="E129" t="s">
-        <v>141</v>
-      </c>
-      <c r="G129" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="B130">
         <v>209341</v>
       </c>
       <c r="C130" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D130">
         <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="B131">
         <v>204534</v>
       </c>
       <c r="C131" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D131">
         <v>2</v>
       </c>
       <c r="E131" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
+        <f t="shared" ref="A132:A180" si="2">A131+1</f>
         <v>131</v>
       </c>
       <c r="B132">
         <v>204534</v>
       </c>
       <c r="C132" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D132">
         <v>2</v>
       </c>
       <c r="E132" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="B133">
         <v>204618</v>
       </c>
       <c r="C133" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="D133">
         <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="B134">
         <v>204615</v>
       </c>
       <c r="C134" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="D134">
         <v>2</v>
       </c>
       <c r="E134" t="s">
-        <v>89</v>
-      </c>
-      <c r="G134" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="B135">
         <v>204423</v>
       </c>
       <c r="C135" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="D135">
         <v>2</v>
       </c>
       <c r="E135" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="B136">
         <v>204535</v>
       </c>
       <c r="C136" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="D136">
         <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="B137">
         <v>204739</v>
       </c>
       <c r="C137" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="D137">
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="B138">
         <v>204616</v>
       </c>
       <c r="C138" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="D138">
         <v>3</v>
       </c>
       <c r="E138" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="B139">
         <v>204735</v>
       </c>
       <c r="C139" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="D139">
         <v>3</v>
       </c>
       <c r="E139" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="B140">
         <v>204737</v>
       </c>
       <c r="C140" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="D140">
         <v>3</v>
       </c>
       <c r="E140" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="B141">
         <v>204736</v>
       </c>
       <c r="C141" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="D141">
         <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="B142">
         <v>204731</v>
       </c>
       <c r="C142" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D142">
         <v>2</v>
       </c>
       <c r="E142" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="B143">
         <v>204533</v>
       </c>
       <c r="C143" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D143">
         <v>2</v>
       </c>
       <c r="E143" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="B144">
         <v>204533</v>
       </c>
       <c r="C144" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D144">
         <v>2</v>
       </c>
       <c r="E144" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="B145">
         <v>204533</v>
       </c>
       <c r="C145" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D145">
         <v>2</v>
       </c>
       <c r="E145" t="s">
-        <v>89</v>
-      </c>
-      <c r="G145" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="B146">
         <v>204533</v>
       </c>
       <c r="C146" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D146">
         <v>2</v>
       </c>
       <c r="E146" t="s">
-        <v>89</v>
-      </c>
-      <c r="G146" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="B147">
         <v>204533</v>
       </c>
       <c r="C147" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D147">
         <v>2</v>
       </c>
       <c r="E147" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="B148">
         <v>204533</v>
       </c>
       <c r="C148" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D148">
         <v>2</v>
       </c>
       <c r="E148" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="B149">
         <v>204617</v>
       </c>
       <c r="C149" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="D149">
         <v>2</v>
       </c>
       <c r="E149" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="B150">
         <v>204738</v>
       </c>
       <c r="C150" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="D150">
         <v>2</v>
       </c>
       <c r="E150" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="B151">
         <v>210332</v>
       </c>
       <c r="C151" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="D151">
         <v>2</v>
       </c>
       <c r="E151" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="B152">
         <v>210416</v>
       </c>
       <c r="C152" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="D152">
         <v>2</v>
       </c>
       <c r="E152" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="F152" t="s">
-        <v>180</v>
-      </c>
-      <c r="G152" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="B153">
         <v>213650</v>
       </c>
       <c r="C153" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="D153">
         <v>3</v>
       </c>
       <c r="E153" t="s">
-        <v>180</v>
-      </c>
-      <c r="G153" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="B154">
         <v>213651</v>
       </c>
       <c r="C154" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D154">
         <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>180</v>
-      </c>
-      <c r="G154" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="B155">
         <v>210204</v>
       </c>
       <c r="C155" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D155">
         <v>3</v>
       </c>
       <c r="E155" t="s">
-        <v>180</v>
-      </c>
-      <c r="G155" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="B156">
         <v>210502</v>
       </c>
       <c r="C156" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D156">
         <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>180</v>
-      </c>
-      <c r="G156" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="B157">
         <v>210362</v>
       </c>
       <c r="C157" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="D157">
         <v>2</v>
       </c>
       <c r="E157" t="s">
-        <v>180</v>
-      </c>
-      <c r="G157" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="B158">
         <v>210903</v>
       </c>
       <c r="C158" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="D158">
         <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>180</v>
-      </c>
-      <c r="G158" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="B159">
         <v>210318</v>
       </c>
       <c r="C159" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="D159">
         <v>2</v>
       </c>
       <c r="E159" t="s">
-        <v>180</v>
-      </c>
-      <c r="G159" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="B160">
         <v>210316</v>
       </c>
       <c r="C160" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="D160">
         <v>2</v>
       </c>
       <c r="E160" t="s">
-        <v>180</v>
-      </c>
-      <c r="G160" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="B161">
         <v>210110</v>
       </c>
       <c r="C161" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D161">
         <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>180</v>
-      </c>
-      <c r="G161" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="B162">
         <v>210301</v>
       </c>
       <c r="C162" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="D162">
         <v>2</v>
       </c>
       <c r="E162" t="s">
-        <v>180</v>
-      </c>
-      <c r="G162" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="B163">
         <v>210506</v>
       </c>
       <c r="C163" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="D163">
         <v>2</v>
       </c>
       <c r="E163" t="s">
-        <v>180</v>
-      </c>
-      <c r="G163" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
+        <f t="shared" si="2"/>
         <v>163</v>
       </c>
       <c r="B164">
         <v>210512</v>
       </c>
       <c r="C164" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="D164">
         <v>2</v>
       </c>
       <c r="E164" t="s">
-        <v>180</v>
-      </c>
-      <c r="G164" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="B165">
         <v>210513</v>
       </c>
       <c r="C165" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="D165">
         <v>3</v>
       </c>
       <c r="E165" t="s">
-        <v>180</v>
-      </c>
-      <c r="G165" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="B166">
         <v>210202</v>
       </c>
       <c r="C166" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="D166">
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>180</v>
-      </c>
-      <c r="G166" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="B167">
         <v>210232</v>
       </c>
       <c r="C167" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D167">
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>180</v>
-      </c>
-      <c r="G167" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="B168">
         <v>210309</v>
       </c>
       <c r="C168" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="D168">
         <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>180</v>
-      </c>
-      <c r="G168" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="B169">
         <v>207233</v>
       </c>
       <c r="C169" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="D169">
         <v>3</v>
       </c>
       <c r="E169" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="B170">
         <v>207230</v>
       </c>
       <c r="C170" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D170">
         <v>3</v>
       </c>
       <c r="E170" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="B171">
         <v>207126</v>
       </c>
       <c r="C171" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="D171">
         <v>2</v>
       </c>
       <c r="E171" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
+        <f t="shared" si="2"/>
         <v>171</v>
       </c>
       <c r="B172">
         <v>207127</v>
       </c>
       <c r="C172" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="D172">
         <v>2</v>
       </c>
       <c r="E172" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
+        <f t="shared" si="2"/>
         <v>172</v>
       </c>
       <c r="B173">
         <v>207117</v>
       </c>
       <c r="C173" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="D173">
         <v>2</v>
       </c>
       <c r="E173" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
+        <f t="shared" si="2"/>
         <v>173</v>
       </c>
       <c r="B174">
         <v>207629</v>
       </c>
       <c r="C174" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="D174">
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
       <c r="B175">
         <v>207324</v>
       </c>
       <c r="C175" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="D175">
         <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="B176">
         <v>207426</v>
       </c>
       <c r="C176" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D176">
         <v>3</v>
       </c>
       <c r="E176" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
+        <f t="shared" si="2"/>
         <v>176</v>
       </c>
       <c r="B177">
         <v>207430</v>
       </c>
       <c r="C177" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="D177">
         <v>3</v>
       </c>
       <c r="E177" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="B178">
         <v>207427</v>
       </c>
       <c r="C178" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="D178">
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
       <c r="B179">
         <v>207736</v>
       </c>
       <c r="C179" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="D179">
         <v>3</v>
       </c>
       <c r="E179" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
+        <f t="shared" si="2"/>
         <v>179</v>
       </c>
       <c r="B180">
         <v>207737</v>
       </c>
       <c r="C180" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="D180">
         <v>2</v>
       </c>
       <c r="E180" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
